--- a/biology/Botanique/Liste_de_jardins_botaniques_aux_États-Unis/Liste_de_jardins_botaniques_aux_États-Unis.xlsx
+++ b/biology/Botanique/Liste_de_jardins_botaniques_aux_États-Unis/Liste_de_jardins_botaniques_aux_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article établit une Liste de jardins botaniques aux États-Unis avec classement alphabétique par États (Washington D.C. est en fin de cette liste).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t xml:space="preserve"> Alabama</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jardin botanique de Birmingham (Birmingham Botanical Gardens)
 Jardin botanique de Huntsville (Huntsville Botanical Garden)</t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t xml:space="preserve"> Alaska</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université d'Alaska, Fairbanks (Georgeson Botanical Garden)</t>
         </is>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,7 +588,9 @@
           <t xml:space="preserve"> Arizona</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jardin botanique de cactus de l'Arizona, Bisbee (Arizona Cactus Botanical Garden)
 Arboretum de Flagstaff (Arboretum at Flagstaff)
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t xml:space="preserve"> Arkansas</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardin botanique des Ozarks, Fayetteville (Botanical Garden of the Ozarks)</t>
         </is>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t xml:space="preserve"> Californie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Jardin botanique Wrigley Île Catalina (Wrigley Memorial &amp; Botanical Gardens)
 Jardin botanique de l'Université de Californie, Berkeley (University of California Botanical Garden)
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t xml:space="preserve"> Caroline du Nord</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Jardin botanique Daniel Stowe, Belmont (Daniel Stowe Botanical Garden)
 Jardin botanique de Caroline du Nord, Chapel Hill (North Carolina Botanical Garden)</t>
@@ -684,7 +708,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -702,7 +726,9 @@
           <t xml:space="preserve"> Caroline du Sud</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Jardin botanique de Caroline du Sud, Clemson (South Carolina Botanical Garden)</t>
         </is>
@@ -714,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -732,7 +758,9 @@
           <t xml:space="preserve"> Colorado</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jardin botanique de Denver (Denver Botanic Gardens)
 Jardin alpin Betty Ford, Vail (Betty Ford Alpine Gardens)</t>
@@ -745,7 +773,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -763,7 +791,9 @@
           <t xml:space="preserve"> Connecticut</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Arboretum du Connecticut College, New London (Connecticut College Arboretum)
 Arboretum Bartlett de l'Université du Connecticut, Stamford (The University of Connecticut Bartlett Arboretum)</t>
@@ -776,7 +806,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -794,7 +824,9 @@
           <t xml:space="preserve"> Delaware</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université du Delaware, Newark (University of Delaware Botanic Gardens)</t>
         </is>
@@ -806,7 +838,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -824,7 +856,9 @@
           <t xml:space="preserve"> Floride</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Jardin botanique Kanapaha, Gainesville (Kanapaha Botanical Gardens)
 Jardin botanique Mockernut Hill, Marion County (Mockernut Hill Botanical Garden)
@@ -844,7 +878,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -862,7 +896,9 @@
           <t xml:space="preserve"> Géorgie</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Jardin botanique de Géorgie, Athens (The State Botanical Garden of Georgia)
 Jardin botanique d'Atlanta (Atlanta Botanical Garden)
@@ -876,7 +912,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -894,7 +930,9 @@
           <t xml:space="preserve"> Hawaï</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Jardin ethnobotanique Amy B.H. Greenwell, Captain Cook (Amy B.H. Greenwell Ethnobotanical Garden)
 Jardin botanique de l'Université d'Hawaii, Honolulu ( University of Hawai'i-Manoa Harold L. Lyon Arboretum)
@@ -909,7 +947,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -927,7 +965,9 @@
           <t xml:space="preserve"> Idaho</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Idaho, Boise (Idaho Botanical Garden)
 Arboretum de l'Université de l'Idaho, Pocatello (Idaho State Arboretum, University of Idaho)</t>
@@ -940,7 +980,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -958,7 +998,9 @@
           <t xml:space="preserve"> Illinois</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Jardin botanique de Chicago, Glencoe (Chicago Botanic Garden)
 Jardin botanique de Lincoln Park, Chicago</t>
@@ -971,7 +1013,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -989,7 +1031,9 @@
           <t xml:space="preserve"> Iowa</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Arboretum et jardin botanique de Dubuque (Dubuque Arboretum &amp; Botanical Gardens)
 Arboretum et jardin botanique de Cedar Valley, Waterloo (Cedar Valley Arboretum &amp; Botanic Gardens)</t>
@@ -1002,7 +1046,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1020,7 +1064,9 @@
           <t xml:space="preserve"> Kansas</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Jardin botanique de Kansas City (Powell Gardens)
 Jardin botanique de Wichita (Botanica - The Wichita Gardens)</t>
@@ -1033,7 +1079,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1051,7 +1097,9 @@
           <t xml:space="preserve"> Kentucky</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Arboretum Bernheim, Comté de Bullitt (Bernheim Arboretum and Research Forest)</t>
         </is>
@@ -1063,7 +1111,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1081,7 +1129,9 @@
           <t xml:space="preserve"> Massachusetts</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Jardin botanique Tower Hill, Boylston (Tower Hill Botanic Garden)
 Arboretum de l'Université d'Harvard, Jamaica Plain (The Arnold Arboretum of Harvard University)
@@ -1096,7 +1146,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1114,7 +1164,9 @@
           <t xml:space="preserve"> Michigan</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Arboretum de l'Université du Michigan, Ann Arbor (Nichols Arboretum)
 Jardin botanique Matthaei, Ann Arbour (Matthaei Botanical Gardens)
@@ -1129,7 +1181,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1147,7 +1199,9 @@
           <t xml:space="preserve"> Minnesota</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Arboretum de l'Université du Minnesota, Chanhassen (University of Minnesota Landscape Arboretum)
 Arboretum du Gustavus Adolphus College, Saint Peter (Linnaeus Arboretum)</t>
@@ -1160,7 +1214,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1178,7 +1232,9 @@
           <t xml:space="preserve"> Missouri</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Jardin botanique du Missouri, Saint Louis (Missouri Botanical Garden)</t>
         </is>
@@ -1190,7 +1246,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1208,7 +1264,9 @@
           <t>Nebraska</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Jardin botanique et arboretum de l'Université du Nebraska, Lincoln (University of Nebraska Botanical Garden and Arboretum)</t>
         </is>
@@ -1220,7 +1278,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1238,7 +1296,9 @@
           <t xml:space="preserve"> New York</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Jardin botanique de Brooklyn, New York (Brooklyn Botanical Garden)
 Jardin botanique de New York (The New York Botanical Garden)
@@ -1253,7 +1313,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1271,7 +1331,9 @@
           <t xml:space="preserve"> Ohio</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Jardin botanique de Cleveland (Cleveland Botanical Garden)
 Jardin botanique du Park Franklin, Columbus, (Franklin Park Conservatory &amp; Botanical Garden)
@@ -1287,7 +1349,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1305,7 +1367,9 @@
           <t xml:space="preserve"> Oklahoma</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Jardin botanique d'Oklahoma City (Myriad Botanical Gardens)
 Jardin botanique et arboretum de l'Oklahoma, Stillwater (Oklahoma Botanical Garden &amp; Arboretum)</t>
@@ -1318,7 +1382,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1336,7 +1400,9 @@
           <t xml:space="preserve"> Oregon</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Jardin botanique de Portland (The Berry Botanical Garden)</t>
         </is>
@@ -1348,7 +1414,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1366,7 +1432,9 @@
           <t xml:space="preserve"> Pennsylvanie</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t>Arboretum de l'American College, Bryn Mawr (American College Arboretum)
 Arboretum de l'Université de Pennsylvanie, Philadelphie (Morris Arboretum of the University of Pennsylvania)</t>
@@ -1379,7 +1447,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1397,7 +1465,9 @@
           <t xml:space="preserve"> Tennessee</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>Arboretum et jardin botanique de Chattanooga (Chattanooga Arboretum and Botanical Garden)
 Jardin botanique de Memphis (Memphis Botanical Garden)
@@ -1411,7 +1481,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1429,7 +1499,9 @@
           <t xml:space="preserve"> Texas</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Jardin botanique Zilker, Austin (Zilker Botanical Garden)
 Arboretum et jardin botanique Mercer, Humble (Mercer Arboretum &amp; Botanic Gardens)
@@ -1443,7 +1515,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1461,7 +1533,9 @@
           <t xml:space="preserve"> Utah</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>Jardin botanique de l'Université de l'Utah, Farmington (Utah State University Botanical Garden)</t>
         </is>
@@ -1473,7 +1547,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1491,7 +1565,9 @@
           <t xml:space="preserve"> Virginie</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
         <is>
           <t>Arboretum de l'État de Virginie, Boyce (State Arboretum of Virginia)
 Jardin botanique de Norfolk (Norfolk Botanical Garden)</t>
@@ -1504,7 +1580,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1522,7 +1598,9 @@
           <t xml:space="preserve"> Washington</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>Jardin botanique de Bellevue ( Bellevue Botanical Garden)</t>
         </is>
@@ -1534,7 +1612,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1552,7 +1630,9 @@
           <t xml:space="preserve"> Wisconsin</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Jardin botanique Boerner, Hales Corners (Boerner Botanical Gardens)
 Jardin botanique Olbrich, Madison (Oldbrich Botanical Gardens)
@@ -1566,7 +1646,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1584,7 +1664,9 @@
           <t xml:space="preserve"> Wyoming</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Jardin botanique de Cheyenne (Cheyenne Botanic Gardens)</t>
         </is>
@@ -1596,7 +1678,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Liste_de_jardins_botaniques_aux_%C3%89tats-Unis</t>
+          <t>Liste_de_jardins_botaniques_aux_États-Unis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1614,7 +1696,9 @@
           <t xml:space="preserve"> Washington D.C.</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>Arboretum national des États-Unis (United States National Arboretum)
 Jardin botanique des États-Unis (United States Botanic Garden)</t>
